--- a/excel/class_notes/Formula Referencing.xlsx
+++ b/excel/class_notes/Formula Referencing.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA8DEAA-B708-4B22-8347-6E05D72CB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{F08EC6D8-8B0D-43EE-B7D3-5EA9B707E070}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +21,10 @@
     <sheet name="east" sheetId="7" r:id="rId12"/>
     <sheet name="summary sales" sheetId="8" r:id="rId13"/>
     <sheet name="absolute" sheetId="3" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>Sure, I'll create a sample dataset for each topic and perform the steps in Excel. Below are the detailed steps for each type of referencing and data analysis.</t>
   </si>
@@ -346,6 +340,33 @@
     <t>Product</t>
   </si>
   <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Final Price</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Total with Tax</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -355,46 +376,37 @@
     <t>Total</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Total with Tax</t>
-  </si>
-  <si>
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Final Price</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Discount</t>
+    <t>Product ID | Product Name | Price  | Quantity</t>
+  </si>
+  <si>
+    <t>P001       | Laptop       | 899    | 20</t>
+  </si>
+  <si>
+    <t>P002       | Mouse        | 25     | 100</t>
+  </si>
+  <si>
+    <t>P003       | Keyboard     | 45     | 80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,19 +414,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -422,9 +771,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -438,17 +1029,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -497,7 +1132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -530,26 +1165,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -582,23 +1200,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,779 +1341,776 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D94A66-2286-4310-894C-236CEE7B9D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection sqref="A1:A196"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAF8712-AD2A-4FA5-AF73-BCCCBBACE05B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>200</v>
@@ -1520,38 +2118,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0466C2-995F-47CB-AF07-1BB2EED755A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>250</v>
@@ -1559,38 +2159,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81523B74-8C28-41CC-9139-C11EDBE5CA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>180</v>
@@ -1598,60 +2200,64 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246D5CF9-69D2-4F60-92A0-E2F3622A4827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66956D9B-EB6E-45C0-A195-3CC88CB136BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>106</v>
@@ -1660,9 +2266,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -1672,9 +2278,9 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>150</v>
@@ -1684,9 +2290,9 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -1698,38 +2304,77 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D650576-5B4E-45DE-A0B1-E9FE5AB55ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>200</v>
@@ -1737,38 +2382,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE31DC09-9BAF-4A0E-B321-776C37B85884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>250</v>
@@ -1776,38 +2423,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E670B20C-621E-4C84-B826-4DD4C889F820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>180</v>
@@ -1815,70 +2464,74 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3CC203-AE24-4089-95F4-7DCC53C74FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE900BC-CED7-4D52-9DFA-66EC5C5EBD32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -1890,9 +2543,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>150</v>
@@ -1904,9 +2557,9 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -1920,25 +2573,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A4E676-7C1C-4AE5-96F9-2C1250F377DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>106</v>
@@ -1947,9 +2602,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -1961,9 +2616,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>150</v>
@@ -1975,9 +2630,9 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -1991,36 +2646,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C586DA-E7BE-4881-94BC-23042A46C20B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -2030,9 +2687,9 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>7</v>
@@ -2042,9 +2699,9 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -2056,36 +2713,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A91E3A9-5924-4F87-863F-D0E967BFF175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" ht="29" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -2095,9 +2754,9 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>150</v>
@@ -2107,9 +2766,9 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -2121,5 +2780,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>